--- a/NEW HR/DONE/PAJENAGO, FRANCIS.xlsx
+++ b/NEW HR/DONE/PAJENAGO, FRANCIS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="72">
   <si>
     <t>PERIOD</t>
   </si>
@@ -251,6 +251,15 @@
   </si>
   <si>
     <t>9/21,22/2023</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>10/3,5,6/2023</t>
+  </si>
+  <si>
+    <t>12/11,21,26,27/2023</t>
   </si>
 </sst>
 </file>
@@ -1548,12 +1557,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K105"/>
+  <dimension ref="A2:M105"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A71" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A71"/>
+      <selection activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,7 +1580,7 @@
     <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1592,7 +1601,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1611,7 +1620,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1634,7 +1643,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="31"/>
@@ -1649,7 +1658,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="9"/>
       <c r="C6" s="32"/>
@@ -1662,7 +1671,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="59" t="s">
@@ -1679,7 +1688,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1714,7 +1723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1723,7 +1732,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>60</v>
+        <v>63.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1733,12 +1742,16 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>85</v>
+        <v>88.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="48">
+        <f>SUM(E9,I9)</f>
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>44</v>
       </c>
@@ -1760,7 +1773,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>43101</v>
       </c>
@@ -1780,7 +1793,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="51"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>43132</v>
       </c>
@@ -1800,7 +1813,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="51"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>43160</v>
       </c>
@@ -1820,7 +1833,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="51"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>43191</v>
       </c>
@@ -1840,7 +1853,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="51"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>43221</v>
       </c>
@@ -1860,7 +1873,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>43252</v>
       </c>
@@ -3269,13 +3282,15 @@
         <v>45170</v>
       </c>
       <c r="B85" s="21"/>
-      <c r="C85" s="14"/>
+      <c r="C85" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="41"/>
       <c r="E85" s="10"/>
       <c r="F85" s="21"/>
-      <c r="G85" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="41"/>
       <c r="I85" s="10"/>
@@ -3286,32 +3301,40 @@
       <c r="A86" s="42">
         <v>45200</v>
       </c>
-      <c r="B86" s="21"/>
-      <c r="C86" s="14"/>
+      <c r="B86" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="41"/>
       <c r="E86" s="10"/>
       <c r="F86" s="21"/>
-      <c r="G86" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="41"/>
       <c r="I86" s="10"/>
       <c r="J86" s="12"/>
-      <c r="K86" s="21"/>
+      <c r="K86" s="51">
+        <v>45203</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="42">
         <v>45231</v>
       </c>
       <c r="B87" s="21"/>
-      <c r="C87" s="14"/>
+      <c r="C87" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="41"/>
       <c r="E87" s="10"/>
       <c r="F87" s="21"/>
-      <c r="G87" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="41"/>
       <c r="I87" s="10"/>
@@ -3655,10 +3678,10 @@
   </sheetPr>
   <dimension ref="A2:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="C12" sqref="C12:C109"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3826,7 +3849,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>23.975000000000001</v>
+        <v>16.975000000000001</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -4644,10 +4667,16 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
-      <c r="B46" s="21"/>
+      <c r="A46" s="42">
+        <v>45200</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="C46" s="14"/>
-      <c r="D46" s="41"/>
+      <c r="D46" s="41">
+        <v>3</v>
+      </c>
       <c r="E46" s="10"/>
       <c r="F46" s="21"/>
       <c r="G46" s="14" t="str">
@@ -4657,13 +4686,21 @@
       <c r="H46" s="41"/>
       <c r="I46" s="10"/>
       <c r="J46" s="12"/>
-      <c r="K46" s="21"/>
+      <c r="K46" s="21" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
-      <c r="B47" s="21"/>
+      <c r="A47" s="42">
+        <v>45231</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="C47" s="14"/>
-      <c r="D47" s="41"/>
+      <c r="D47" s="41">
+        <v>4</v>
+      </c>
       <c r="E47" s="10"/>
       <c r="F47" s="21"/>
       <c r="G47" s="14" t="str">
@@ -4673,7 +4710,9 @@
       <c r="H47" s="41"/>
       <c r="I47" s="10"/>
       <c r="J47" s="12"/>
-      <c r="K47" s="21"/>
+      <c r="K47" s="21" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="42"/>
